--- a/tests/data/output/一级报告详情测试用例-f0003_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-f0003_result.xlsx
@@ -176,16 +176,16 @@
     <t>true</t>
   </si>
   <si>
-    <t>{"name":"于柳","id_card_no":"130624197509011939"}</t>
-  </si>
-  <si>
-    <t>{"name":"归成","id_card_no":"511024194912080614"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨玉英","id_card_no":"130622197501021080"}</t>
-  </si>
-  <si>
-    <t>{"name":"淳文","id_card_no":"511723198112212404"}</t>
+    <t>{"name":"况冬梅","id_card_no":"140981196811090712"}</t>
+  </si>
+  <si>
+    <t>{"name":"慕琳","id_card_no":"35062719490330826X"}</t>
+  </si>
+  <si>
+    <t>{"name":"王平","id_card_no":"36030119860225961X"}</t>
+  </si>
+  <si>
+    <t>{"name":"晋岩","id_card_no":"410802194609047492"}</t>
   </si>
 </sst>
 </file>
